--- a/산출물/설계/AND-02.기능정의서/20200811_프로젝트 상세 관리_AND-02_기능정의서_v0.1.xlsx
+++ b/산출물/설계/AND-02.기능정의서/20200811_프로젝트 상세 관리_AND-02_기능정의서_v0.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38370" windowHeight="20115" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38370" windowHeight="20115" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="겉표지" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="기능정의서(샘플)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -567,27 +566,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신규 프로젝트를 최초 등록한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규 프로젝트 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존 프로젝트 정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존 프로젝트 정보 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록되어 있는 프로젝트 정보를 수정한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>등록되어 있는 프로젝트 정보를 삭제한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성한 프로젝트 정보를 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 프로젝트 정보 수정 시 선택한 프로젝트 정보를 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 정보 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 정보 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1204,7 +1203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1447,11 +1446,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1521,10 +1520,10 @@
         <v>27</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" s="16">
         <v>44054</v>
@@ -1542,10 +1541,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E5" s="16">
         <v>44054</v>
@@ -1563,10 +1562,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E6" s="16">
         <v>44054</v>

--- a/산출물/설계/AND-02.기능정의서/20200811_프로젝트 상세 관리_AND-02_기능정의서_v0.1.xlsx
+++ b/산출물/설계/AND-02.기능정의서/20200811_프로젝트 상세 관리_AND-02_기능정의서_v0.1.xlsx
@@ -327,7 +327,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>프로젝트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -528,10 +528,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>요구사항ID</t>
     </r>
@@ -550,22 +546,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FUNC-SK-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이제영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FUNC-SK-002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUNC-SK-003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>등록되어 있는 프로젝트 정보를 삭제한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -587,6 +571,26 @@
   </si>
   <si>
     <t>프로젝트 정보 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNC-PR-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNC-PR-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNC-PR-003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1270,7 +1274,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" s="11"/>
     </row>
@@ -1450,7 +1454,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1509,21 +1513,21 @@
         <v>14</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E4" s="16">
         <v>44054</v>
@@ -1535,16 +1539,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E5" s="16">
         <v>44054</v>
@@ -1556,16 +1560,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6" s="16">
         <v>44054</v>
@@ -1740,7 +1744,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
